--- a/arduino/Sensors/IR/New/ir4.xlsx
+++ b/arduino/Sensors/IR/New/ir4.xlsx
@@ -14,13 +14,21 @@
   <sheets>
     <sheet name="ir4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>a=-0.958484578300278 b=1.1554715407459 c=17.8895449375782 d=371.383445343966 e=0.958870824679451</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF696969"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -497,8 +511,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -820,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,15 +887,15 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F8" si="0">1/(E2+$E$10)</f>
+        <f t="shared" ref="F2:F3" si="0">1/(E2+$E$10)</f>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G8" si="1">$J$2*D2+$J$1</f>
+        <f t="shared" ref="G2:G3" si="1">$J$2*D2+$J$1</f>
         <v>4.4868356176569417E-2</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H8" si="2">1/G2-$E$10</f>
+        <f t="shared" ref="H2:H3" si="2">1/G2-$E$10</f>
         <v>20.287422255112777</v>
       </c>
       <c r="J2">
@@ -1055,6 +1070,89 @@
       </c>
       <c r="B11">
         <v>65.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>-0.958484578300278</v>
+      </c>
+      <c r="C14">
+        <v>420.36</v>
+      </c>
+      <c r="D14">
+        <f>$B$14+$B$17/POWER(1+POWER(C14/$B$16,$B$15),$B$18)</f>
+        <v>10.008617453240683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1.1554715407459</v>
+      </c>
+      <c r="C15">
+        <v>225.2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D20" si="3">$B$14+$B$17/POWER(1+POWER(C15/$B$16,$B$15),$B$18)</f>
+        <v>20.390544124585574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>17.889544937578201</v>
+      </c>
+      <c r="C16">
+        <v>161.24</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>29.260242990690781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>371.383445343966</v>
+      </c>
+      <c r="C17">
+        <v>118.28</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>40.390675074406801</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.95887082467945095</v>
+      </c>
+      <c r="C18">
+        <v>93.64</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>51.040359738830695</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>78.88</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>60.268802298487181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>68.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>69.102297988610786</v>
       </c>
     </row>
   </sheetData>
